--- a/Oppgavepool med oversikt.xlsx
+++ b/Oppgavepool med oversikt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Oppgaver</t>
   </si>
@@ -66,14 +66,28 @@
   </si>
   <si>
     <t>Oliver/alle</t>
+  </si>
+  <si>
+    <t>Stig</t>
+  </si>
+  <si>
+    <t>* Utvidelse av oppgave 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,26 +398,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -413,7 +432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -424,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -435,30 +454,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -469,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -480,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -491,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -502,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -513,12 +547,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -529,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -567,5 +604,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>